--- a/artfynd/A 35425-2019.xlsx
+++ b/artfynd/A 35425-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3367,6 +3367,1818 @@
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112389959</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89058</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>509111</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6784257</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112390567</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>509010</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6783836</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112390031</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>509098</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6784229</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112390287</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89058</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>509070</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6784097</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112390398</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>509066</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6784010</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112390524</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>509060</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6783866</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112390451</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>509076</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6783959</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112390382</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>509061</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6784061</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112390292</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90794</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>509065</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6784066</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112389988</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89058</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>509101</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6784234</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112390630</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>509014</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6783848</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112390509</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>509056</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6783885</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112390426</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>509076</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6783959</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112390119</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>509093</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6784215</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112390262</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90794</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>509072</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6784116</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112390256</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90434</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4745</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tallriska</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Lactarius musteus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Furudals bruk, Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>509090</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6784191</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Ulf Lindenbaum</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 35425-2019.xlsx
+++ b/artfynd/A 35425-2019.xlsx
@@ -3369,10 +3369,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112389959</v>
+        <v>112390567</v>
       </c>
       <c r="B24" t="n">
-        <v>89058</v>
+        <v>90792</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3381,30 +3381,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>256703</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>509111</v>
+        <v>509010</v>
       </c>
       <c r="R24" t="n">
-        <v>6784257</v>
+        <v>6783836</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112390567</v>
+        <v>112389959</v>
       </c>
       <c r="B25" t="n">
-        <v>90792</v>
+        <v>89058</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3500,30 +3500,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>509010</v>
+        <v>509111</v>
       </c>
       <c r="R25" t="n">
-        <v>6783836</v>
+        <v>6784257</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112390031</v>
+        <v>112390287</v>
       </c>
       <c r="B26" t="n">
-        <v>90812</v>
+        <v>89058</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3623,28 +3623,24 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4366</v>
+        <v>256703</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -3654,10 +3650,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>509098</v>
+        <v>509070</v>
       </c>
       <c r="R26" t="n">
-        <v>6784229</v>
+        <v>6784097</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3722,10 +3718,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112390287</v>
+        <v>112390398</v>
       </c>
       <c r="B27" t="n">
-        <v>89058</v>
+        <v>90816</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3734,25 +3730,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3765,10 +3761,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>509070</v>
+        <v>509066</v>
       </c>
       <c r="R27" t="n">
-        <v>6784097</v>
+        <v>6784010</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3833,10 +3829,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112390398</v>
+        <v>112390031</v>
       </c>
       <c r="B28" t="n">
-        <v>90816</v>
+        <v>90812</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3845,28 +3841,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>509066</v>
+        <v>509098</v>
       </c>
       <c r="R28" t="n">
-        <v>6784010</v>
+        <v>6784229</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>

--- a/artfynd/A 35425-2019.xlsx
+++ b/artfynd/A 35425-2019.xlsx
@@ -3369,10 +3369,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112390567</v>
+        <v>112390031</v>
       </c>
       <c r="B24" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3381,37 +3381,33 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3420,10 +3416,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>509010</v>
+        <v>509098</v>
       </c>
       <c r="R24" t="n">
-        <v>6783836</v>
+        <v>6784229</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3488,10 +3484,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112389959</v>
+        <v>112390262</v>
       </c>
       <c r="B25" t="n">
-        <v>89058</v>
+        <v>90808</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3500,37 +3496,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>256703</v>
+        <v>4362</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3539,10 +3527,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>509111</v>
+        <v>509072</v>
       </c>
       <c r="R25" t="n">
-        <v>6784257</v>
+        <v>6784116</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3607,10 +3595,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112390287</v>
+        <v>112390292</v>
       </c>
       <c r="B26" t="n">
-        <v>89058</v>
+        <v>90808</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3619,29 +3607,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>256703</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3650,10 +3646,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>509070</v>
+        <v>509065</v>
       </c>
       <c r="R26" t="n">
-        <v>6784097</v>
+        <v>6784066</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3697,11 +3693,6 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3718,10 +3709,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112390398</v>
+        <v>112390287</v>
       </c>
       <c r="B27" t="n">
-        <v>90816</v>
+        <v>89072</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3730,25 +3721,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>256703</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3761,10 +3752,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>509066</v>
+        <v>509070</v>
       </c>
       <c r="R27" t="n">
-        <v>6784010</v>
+        <v>6784097</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3829,10 +3820,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112390031</v>
+        <v>112390426</v>
       </c>
       <c r="B28" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3867,7 +3858,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -3876,10 +3871,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>509098</v>
+        <v>509076</v>
       </c>
       <c r="R28" t="n">
-        <v>6784229</v>
+        <v>6783959</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3947,7 +3942,7 @@
         <v>112390524</v>
       </c>
       <c r="B29" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4050,10 +4045,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112390451</v>
+        <v>112389959</v>
       </c>
       <c r="B30" t="n">
-        <v>90800</v>
+        <v>89072</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4066,26 +4061,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>256703</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4101,10 +4096,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>509076</v>
+        <v>509111</v>
       </c>
       <c r="R30" t="n">
-        <v>6783959</v>
+        <v>6784257</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4169,10 +4164,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112390382</v>
+        <v>112389988</v>
       </c>
       <c r="B31" t="n">
-        <v>90816</v>
+        <v>89072</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4181,28 +4176,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>256703</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4212,10 +4211,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>509061</v>
+        <v>509101</v>
       </c>
       <c r="R31" t="n">
-        <v>6784061</v>
+        <v>6784234</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4280,10 +4279,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112390292</v>
+        <v>112390256</v>
       </c>
       <c r="B32" t="n">
-        <v>90794</v>
+        <v>90448</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4296,21 +4295,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4331,10 +4330,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>509065</v>
+        <v>509090</v>
       </c>
       <c r="R32" t="n">
-        <v>6784066</v>
+        <v>6784191</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4378,6 +4377,11 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4394,10 +4398,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112389988</v>
+        <v>112390451</v>
       </c>
       <c r="B33" t="n">
-        <v>89058</v>
+        <v>90814</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4410,29 +4414,33 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>256703</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4441,10 +4449,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>509101</v>
+        <v>509076</v>
       </c>
       <c r="R33" t="n">
-        <v>6784234</v>
+        <v>6783959</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4509,10 +4517,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112390630</v>
+        <v>112390567</v>
       </c>
       <c r="B34" t="n">
-        <v>90843</v>
+        <v>90806</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4525,25 +4533,33 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4552,10 +4568,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>509014</v>
+        <v>509010</v>
       </c>
       <c r="R34" t="n">
-        <v>6783848</v>
+        <v>6783836</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4599,6 +4615,11 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4615,10 +4636,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112390509</v>
+        <v>112390119</v>
       </c>
       <c r="B35" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4658,10 +4679,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>509056</v>
+        <v>509093</v>
       </c>
       <c r="R35" t="n">
-        <v>6783885</v>
+        <v>6784215</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4705,6 +4726,11 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4721,10 +4747,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112390426</v>
+        <v>112390398</v>
       </c>
       <c r="B36" t="n">
-        <v>90812</v>
+        <v>90830</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4733,37 +4759,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
@@ -4772,10 +4790,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>509076</v>
+        <v>509066</v>
       </c>
       <c r="R36" t="n">
-        <v>6783959</v>
+        <v>6784010</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4840,10 +4858,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112390119</v>
+        <v>112390630</v>
       </c>
       <c r="B37" t="n">
-        <v>90816</v>
+        <v>90857</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4856,21 +4874,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4883,10 +4901,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>509093</v>
+        <v>509014</v>
       </c>
       <c r="R37" t="n">
-        <v>6784215</v>
+        <v>6783848</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4930,11 +4948,6 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4951,10 +4964,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112390262</v>
+        <v>112390509</v>
       </c>
       <c r="B38" t="n">
-        <v>90794</v>
+        <v>90830</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4967,21 +4980,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4994,10 +5007,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>509072</v>
+        <v>509056</v>
       </c>
       <c r="R38" t="n">
-        <v>6784116</v>
+        <v>6783885</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5041,11 +5054,6 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5062,10 +5070,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112390256</v>
+        <v>112390382</v>
       </c>
       <c r="B39" t="n">
-        <v>90434</v>
+        <v>90830</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5078,33 +5086,25 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Fr.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509090</v>
+        <v>509061</v>
       </c>
       <c r="R39" t="n">
-        <v>6784191</v>
+        <v>6784061</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>

--- a/artfynd/A 35425-2019.xlsx
+++ b/artfynd/A 35425-2019.xlsx
@@ -3369,7 +3369,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112390031</v>
+        <v>112390426</v>
       </c>
       <c r="B24" t="n">
         <v>90826</v>
@@ -3407,7 +3407,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
@@ -3416,10 +3420,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>509098</v>
+        <v>509076</v>
       </c>
       <c r="R24" t="n">
-        <v>6784229</v>
+        <v>6783959</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3484,10 +3488,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112390262</v>
+        <v>112390567</v>
       </c>
       <c r="B25" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3500,25 +3504,33 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
@@ -3527,10 +3539,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>509072</v>
+        <v>509010</v>
       </c>
       <c r="R25" t="n">
-        <v>6784116</v>
+        <v>6783836</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3595,10 +3607,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112390292</v>
+        <v>112390451</v>
       </c>
       <c r="B26" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3607,30 +3619,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3646,10 +3658,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>509065</v>
+        <v>509076</v>
       </c>
       <c r="R26" t="n">
-        <v>6784066</v>
+        <v>6783959</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3693,6 +3705,11 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3709,10 +3726,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112390287</v>
+        <v>112390119</v>
       </c>
       <c r="B27" t="n">
-        <v>89072</v>
+        <v>90830</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3721,25 +3738,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>256703</v>
+        <v>2059</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3752,10 +3769,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>509070</v>
+        <v>509093</v>
       </c>
       <c r="R27" t="n">
-        <v>6784097</v>
+        <v>6784215</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3820,10 +3837,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112390426</v>
+        <v>112390524</v>
       </c>
       <c r="B28" t="n">
-        <v>90826</v>
+        <v>90814</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3836,33 +3853,25 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -3871,10 +3880,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>509076</v>
+        <v>509060</v>
       </c>
       <c r="R28" t="n">
-        <v>6783959</v>
+        <v>6783866</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3918,11 +3927,6 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3939,10 +3943,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112390524</v>
+        <v>112390630</v>
       </c>
       <c r="B29" t="n">
-        <v>90814</v>
+        <v>90857</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3951,25 +3955,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3982,10 +3986,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>509060</v>
+        <v>509014</v>
       </c>
       <c r="R29" t="n">
-        <v>6783866</v>
+        <v>6783848</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112389959</v>
+        <v>112390287</v>
       </c>
       <c r="B30" t="n">
         <v>89072</v>
@@ -4078,16 +4082,8 @@
           <t>R.H.Petersen</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -4096,10 +4092,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>509111</v>
+        <v>509070</v>
       </c>
       <c r="R30" t="n">
-        <v>6784257</v>
+        <v>6784097</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4164,10 +4160,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112389988</v>
+        <v>112390262</v>
       </c>
       <c r="B31" t="n">
-        <v>89072</v>
+        <v>90808</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4176,32 +4172,28 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>256703</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4211,10 +4203,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>509101</v>
+        <v>509072</v>
       </c>
       <c r="R31" t="n">
-        <v>6784234</v>
+        <v>6784116</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4279,10 +4271,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112390256</v>
+        <v>112389988</v>
       </c>
       <c r="B32" t="n">
-        <v>90448</v>
+        <v>89072</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4291,25 +4283,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4745</v>
+        <v>256703</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4317,11 +4309,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4330,10 +4318,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>509090</v>
+        <v>509101</v>
       </c>
       <c r="R32" t="n">
-        <v>6784191</v>
+        <v>6784234</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4398,10 +4386,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112390451</v>
+        <v>112390292</v>
       </c>
       <c r="B33" t="n">
-        <v>90814</v>
+        <v>90808</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4410,30 +4398,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4449,10 +4437,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>509076</v>
+        <v>509065</v>
       </c>
       <c r="R33" t="n">
-        <v>6783959</v>
+        <v>6784066</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4496,11 +4484,6 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4517,10 +4500,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112390567</v>
+        <v>112390382</v>
       </c>
       <c r="B34" t="n">
-        <v>90806</v>
+        <v>90830</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4533,33 +4516,25 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4568,10 +4543,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>509010</v>
+        <v>509061</v>
       </c>
       <c r="R34" t="n">
-        <v>6783836</v>
+        <v>6784061</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4636,7 +4611,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112390119</v>
+        <v>112390398</v>
       </c>
       <c r="B35" t="n">
         <v>90830</v>
@@ -4679,10 +4654,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>509093</v>
+        <v>509066</v>
       </c>
       <c r="R35" t="n">
-        <v>6784215</v>
+        <v>6784010</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4747,7 +4722,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112390398</v>
+        <v>112390509</v>
       </c>
       <c r="B36" t="n">
         <v>90830</v>
@@ -4790,10 +4765,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>509066</v>
+        <v>509056</v>
       </c>
       <c r="R36" t="n">
-        <v>6784010</v>
+        <v>6783885</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4837,11 +4812,6 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4858,10 +4828,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112390630</v>
+        <v>112390256</v>
       </c>
       <c r="B37" t="n">
-        <v>90857</v>
+        <v>90448</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4874,25 +4844,33 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5448</v>
+        <v>4745</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4901,10 +4879,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>509014</v>
+        <v>509090</v>
       </c>
       <c r="R37" t="n">
-        <v>6783848</v>
+        <v>6784191</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4948,6 +4926,11 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4964,10 +4947,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112390509</v>
+        <v>112390031</v>
       </c>
       <c r="B38" t="n">
-        <v>90830</v>
+        <v>90826</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4976,28 +4959,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -5007,10 +4994,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>509056</v>
+        <v>509098</v>
       </c>
       <c r="R38" t="n">
-        <v>6783885</v>
+        <v>6784229</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5054,6 +5041,11 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5070,10 +5062,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112390382</v>
+        <v>112389959</v>
       </c>
       <c r="B39" t="n">
-        <v>90830</v>
+        <v>89072</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5082,29 +5074,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2059</v>
+        <v>256703</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509061</v>
+        <v>509111</v>
       </c>
       <c r="R39" t="n">
-        <v>6784061</v>
+        <v>6784257</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>

--- a/artfynd/A 35425-2019.xlsx
+++ b/artfynd/A 35425-2019.xlsx
@@ -3943,10 +3943,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112390630</v>
+        <v>112390287</v>
       </c>
       <c r="B29" t="n">
-        <v>90857</v>
+        <v>89072</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5448</v>
+        <v>256703</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>509014</v>
+        <v>509070</v>
       </c>
       <c r="R29" t="n">
-        <v>6783848</v>
+        <v>6784097</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4033,6 +4033,11 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4049,10 +4054,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112390287</v>
+        <v>112390262</v>
       </c>
       <c r="B30" t="n">
-        <v>89072</v>
+        <v>90808</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4061,25 +4066,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>256703</v>
+        <v>4362</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4092,10 +4097,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>509070</v>
+        <v>509072</v>
       </c>
       <c r="R30" t="n">
-        <v>6784097</v>
+        <v>6784116</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4160,10 +4165,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112390262</v>
+        <v>112390630</v>
       </c>
       <c r="B31" t="n">
-        <v>90808</v>
+        <v>90857</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4176,21 +4181,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4203,10 +4208,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>509072</v>
+        <v>509014</v>
       </c>
       <c r="R31" t="n">
-        <v>6784116</v>
+        <v>6783848</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4250,11 +4255,6 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4271,10 +4271,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112389988</v>
+        <v>112390292</v>
       </c>
       <c r="B32" t="n">
-        <v>89072</v>
+        <v>90808</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4283,25 +4283,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>256703</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4309,7 +4309,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4318,10 +4322,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>509101</v>
+        <v>509065</v>
       </c>
       <c r="R32" t="n">
-        <v>6784234</v>
+        <v>6784066</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4365,11 +4369,6 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4386,10 +4385,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112390292</v>
+        <v>112389988</v>
       </c>
       <c r="B33" t="n">
-        <v>90808</v>
+        <v>89072</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4398,25 +4397,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4362</v>
+        <v>256703</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4424,11 +4423,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4437,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>509065</v>
+        <v>509101</v>
       </c>
       <c r="R33" t="n">
-        <v>6784066</v>
+        <v>6784234</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4484,6 +4479,11 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4500,7 +4500,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112390382</v>
+        <v>112390398</v>
       </c>
       <c r="B34" t="n">
         <v>90830</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>509061</v>
+        <v>509066</v>
       </c>
       <c r="R34" t="n">
-        <v>6784061</v>
+        <v>6784010</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112390398</v>
+        <v>112390509</v>
       </c>
       <c r="B35" t="n">
         <v>90830</v>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>509066</v>
+        <v>509056</v>
       </c>
       <c r="R35" t="n">
-        <v>6784010</v>
+        <v>6783885</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4701,11 +4701,6 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Sandtallskog</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4722,10 +4717,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112390509</v>
+        <v>112390256</v>
       </c>
       <c r="B36" t="n">
-        <v>90830</v>
+        <v>90448</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4738,25 +4733,33 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
@@ -4765,10 +4768,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>509056</v>
+        <v>509090</v>
       </c>
       <c r="R36" t="n">
-        <v>6783885</v>
+        <v>6784191</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4812,6 +4815,11 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4828,10 +4836,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112390256</v>
+        <v>112390382</v>
       </c>
       <c r="B37" t="n">
-        <v>90448</v>
+        <v>90830</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4844,33 +4852,25 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Fr.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4879,10 +4879,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>509090</v>
+        <v>509061</v>
       </c>
       <c r="R37" t="n">
-        <v>6784191</v>
+        <v>6784061</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
